--- a/1 - DataSet Excel/Template de remplissage cotation AO v08062016.xlsx
+++ b/1 - DataSet Excel/Template de remplissage cotation AO v08062016.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Desktop/1  - PRICING PY/1 - DataSet Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\charles.lioret\AppData\Local\Programs\Python\Python35-32\Projets\0 - Projet AO\pricingAO\1 - DataSet Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A1 - Données (input)" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,13 @@
     <sheet name="A6 - scope setting" sheetId="6" r:id="rId6"/>
     <sheet name="A7 - crossworks setting" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -2122,10 +2119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)\ _€_ ;_ * \(#,##0.00\)\ _€_ ;_ * &quot;-&quot;??_)\ _€_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0_)%;\(0\)%;&quot;- &quot;_)_%"/>
-    <numFmt numFmtId="165" formatCode="0.0_)%;\(0.0\)%;&quot;- &quot;_)_%"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ _€_ ;_ * \(#,##0.00\)\ _€_ ;_ * &quot;-&quot;??_)\ _€_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0_)%;\(0\)%;&quot;- &quot;_)_%"/>
+    <numFmt numFmtId="166" formatCode="0.0_)%;\(0.0\)%;&quot;- &quot;_)_%"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -2267,7 +2264,7 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -2285,14 +2282,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2307,7 +2304,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2606,27 +2603,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuille1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Feuille1"/>
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A240" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A129" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -2659,7 +2656,7 @@
         <v>Name,Activity,Turnover,Country,PIE/OMB,CSP,Scope,Crossworks,Manual</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -2692,7 +2689,7 @@
         <v>AERO PISTE,Transport opérationnel,14.797,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
@@ -2725,7 +2722,7 @@
         <v>AEROPASS,Transport opérationnel,22.436,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
@@ -2758,7 +2755,7 @@
         <v>VEOLIA TRANSDEV QUEBEC INC,Transport opérationnel,16.846875,Canada,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -2791,7 +2788,7 @@
         <v>AIRCAR,Transport opérationnel,0.313,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -2824,7 +2821,7 @@
         <v>ALTIBUS,Transport opérationnel,1.096,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
@@ -2857,7 +2854,7 @@
         <v>ARY,Transport opérationnel,4.942,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
@@ -2890,7 +2887,7 @@
         <v>ATRIOM DE BEAUVAISIS,Transport opérationnel,18.431,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
@@ -2923,7 +2920,7 @@
         <v>ATRIOM DU COMPIEGNOIS,Transport opérationnel,12.755,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
@@ -2956,7 +2953,7 @@
         <v>AUTOBUS AIXOIS,Transport opérationnel,0.487,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -2989,7 +2986,7 @@
         <v>AUTOBUS ARTESIENS,Transport opérationnel,15.436,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
@@ -3022,7 +3019,7 @@
         <v>AUTOBUS AUBAGNAIS,Transport opérationnel,13.035,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -3055,7 +3052,7 @@
         <v>AUTOBUS AURELIENS,Transport opérationnel,6.373,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -3088,7 +3085,7 @@
         <v>AUTOBUS MARNE LA VALLEE,Transport opérationnel,26.226,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -3121,7 +3118,7 @@
         <v>AUTOCARS ALIZES,Transport opérationnel,9.99,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -3154,7 +3151,7 @@
         <v>AUTOCARS CHAMBON-GROS,Transport opérationnel,5.067,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>40</v>
       </c>
@@ -3187,7 +3184,7 @@
         <v>AUTOCARS DARCHE-GROS,Transport opérationnel,28.167,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
@@ -3220,7 +3217,7 @@
         <v>AUTOCARS DE L’AVESNOIS,Transport opérationnel,8.744,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -3253,7 +3250,7 @@
         <v>AUTOCARS SABARDU,Transport opérationnel,14.677,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
@@ -3286,7 +3283,7 @@
         <v>AUTOCARS TOURNEUX,Transport opérationnel,9.253,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
@@ -3319,7 +3316,7 @@
         <v>AUXERROIS MOBILITES,Transport opérationnel,4.94,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>45</v>
       </c>
@@ -3352,7 +3349,7 @@
         <v>Redbus Urbano SA,Transport opérationnel,67.0158995615783,Chile,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
@@ -3385,7 +3382,7 @@
         <v>TRANSDEV BLAZEFIELD LIMITED,Transport opérationnel,67.0234567901235,United Kingdom,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
@@ -3418,7 +3415,7 @@
         <v>AVA,Transport opérationnel,2.828,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>51</v>
       </c>
@@ -3451,7 +3448,7 @@
         <v>Veolia Transport NSW P/L,Transport opérationnel,69.2055555555555,Australia,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>53</v>
       </c>
@@ -3484,7 +3481,7 @@
         <v>AVAF,Transport opérationnel,1.713,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>54</v>
       </c>
@@ -3517,7 +3514,7 @@
         <v>AWV,Transport opérationnel,7.611,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>56</v>
       </c>
@@ -3550,7 +3547,7 @@
         <v>BAYERISCHE OBERLANDBAHN GMBH IG,Transport opérationnel,37.518,Germany,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>57</v>
       </c>
@@ -3583,7 +3580,7 @@
         <v>Veolia Transport Perth P/L,Transport opérationnel,85.4444444444444,Australia,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>58</v>
       </c>
@@ -3616,7 +3613,7 @@
         <v>BAYERISCHE REGIOBAHN GMBH,Transport opérationnel,37.524,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>59</v>
       </c>
@@ -3649,7 +3646,7 @@
         <v>BEIRA DOURO,Transport opérationnel,7.515,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>60</v>
       </c>
@@ -3682,7 +3679,7 @@
         <v>BESANÇON MOBILITÉ,Transport opérationnel,30.741,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>61</v>
       </c>
@@ -3715,7 +3712,7 @@
         <v>BIEVRE BUS MOBILITES,Transport opérationnel,7.485,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>62</v>
       </c>
@@ -3748,7 +3745,7 @@
         <v>BRAVO PISTE,Transport opérationnel,6.058,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
@@ -3781,7 +3778,7 @@
         <v>MBCRC,Transport opérationnel,250.608661417323,USA,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>65</v>
       </c>
@@ -3814,7 +3811,7 @@
         <v>VEOLIA TRANSPORT AUSTRALASIA P/L.,Transport opérationnel,0.487301587301587,Australia,PIE,Oui,2,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>66</v>
       </c>
@@ -3847,7 +3844,7 @@
         <v>Connex Jerusalem (Light Train) Ltd,Transport opérationnel,15.6931818181818,Egypt,PIE,Oui,2,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>68</v>
       </c>
@@ -3880,7 +3877,7 @@
         <v>BREMOND,Transport opérationnel,9.977,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>69</v>
       </c>
@@ -3913,7 +3910,7 @@
         <v>BUS DE L'ETANG DE BERRE,Transport opérationnel,13.149,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>70</v>
       </c>
@@ -3946,7 +3943,7 @@
         <v>BUS EST,Transport opérationnel,9.848,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>71</v>
       </c>
@@ -3979,7 +3976,7 @@
         <v>C.A.P.,Transport opérationnel,14.839,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>72</v>
       </c>
@@ -4012,7 +4009,7 @@
         <v>CABARO,Transport opérationnel,23.455,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>73</v>
       </c>
@@ -4045,7 +4042,7 @@
         <v>CAIMA,Transport opérationnel,9.597,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>74</v>
       </c>
@@ -4078,7 +4075,7 @@
         <v>VEOLIA TRANSDEV CANADA INC (yc York),Transport opérationnel,3.55546875,Canada,PIE,Oui,3,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>75</v>
       </c>
@@ -4111,7 +4108,7 @@
         <v>CALCADA,Transport opérationnel,0.336,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>76</v>
       </c>
@@ -4144,7 +4141,7 @@
         <v>VEOLIA FERRIES SYDNEY,Transport opérationnel,20.0777777777778,Australia,PIE,Oui,3,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>77</v>
       </c>
@@ -4177,7 +4174,7 @@
         <v>TNSW-IG,Transport opérationnel,20.4507936507937,Australia,PIE,Oui,3,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>78</v>
       </c>
@@ -4210,7 +4207,7 @@
         <v>CAP PAYS CATHARE,Transport opérationnel,8.781,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>79</v>
       </c>
@@ -4243,7 +4240,7 @@
         <v>VT QUEENSLAND PTY LTD,Transport opérationnel,27.3769841269841,Australia,PIE,Oui,3,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>80</v>
       </c>
@@ -4276,7 +4273,7 @@
         <v>SOVEREIGN,Transport opérationnel,33.8654320987654,United Kingdom,PIE,Oui,3,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>81</v>
       </c>
@@ -4309,7 +4306,7 @@
         <v>CARBU WASH,Transport opérationnel,12.719,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>82</v>
       </c>
@@ -4342,7 +4339,7 @@
         <v>CONNEX TRANSPORTATION ISRAEL,Transport opérationnel,39.9801652892562,Tunisia,PIE,Oui,3,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>83</v>
       </c>
@@ -4375,7 +4372,7 @@
         <v>CARS D'ORSAY,Transport opérationnel,24.309,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>84</v>
       </c>
@@ -4408,7 +4405,7 @@
         <v>CARS DU PAYS D'AIX,Transport opérationnel,9.573,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>85</v>
       </c>
@@ -4441,7 +4438,7 @@
         <v>CEA TRANSPORTS,Transport opérationnel,18.689,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>86</v>
       </c>
@@ -4474,7 +4471,7 @@
         <v>CFTA CENTRE OUEST,Transport opérationnel,15.458,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>87</v>
       </c>
@@ -4507,7 +4504,7 @@
         <v>Veolia Transport Chile,Transport opérationnel,0.0712666400956556,Chile,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>88</v>
       </c>
@@ -4540,7 +4537,7 @@
         <v>CFTA RHONE,Transport opérationnel,10.106,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>89</v>
       </c>
@@ -4573,7 +4570,7 @@
         <v>CFTA SA (y compris étbs hors CFTA La Rhune),Transport opérationnel,6.115,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>90</v>
       </c>
@@ -4606,7 +4603,7 @@
         <v>CFTI (y compris étbs),Transport opérationnel,48.339,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>91</v>
       </c>
@@ -4639,7 +4636,7 @@
         <v>Charlipiste,Transport opérationnel,2.47,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>92</v>
       </c>
@@ -4672,7 +4669,7 @@
         <v>CHARTRES MOBILITE,Transport opérationnel,8.448,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>93</v>
       </c>
@@ -4705,7 +4702,7 @@
         <v>CIE ARMORICAINE DE TRANSPORTS,Transport opérationnel,67.73,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>94</v>
       </c>
@@ -4738,7 +4735,7 @@
         <v>CIE DE TRANSPORTS DE SAUMUR,Transport opérationnel,0.009,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>95</v>
       </c>
@@ -4771,7 +4768,7 @@
         <v>CIE DES AUTOCARS DE TOURAINE,Transport opérationnel,17.772,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>96</v>
       </c>
@@ -4804,7 +4801,7 @@
         <v>CIE DES TRANSPORTS DU PAYS DE VANNES,Transport opérationnel,13.246,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>97</v>
       </c>
@@ -4837,7 +4834,7 @@
         <v>CIE OCEANE,Transport opérationnel,19.881,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>98</v>
       </c>
@@ -4870,7 +4867,7 @@
         <v>Cie Saint Quentinoise de transports,Transport opérationnel,6.271,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>99</v>
       </c>
@@ -4903,7 +4900,7 @@
         <v>CIOTABUS,Transport opérationnel,3.62,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>100</v>
       </c>
@@ -4936,7 +4933,7 @@
         <v>CITEBUS DES 2 RIVES,Transport opérationnel,1.941,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>101</v>
       </c>
@@ -4969,7 +4966,7 @@
         <v>CITRAM AQUITAINE,Transport opérationnel,44.679,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>102</v>
       </c>
@@ -5002,7 +4999,7 @@
         <v>OY BIKE,Transport opérationnel,0.918518518518518,United Kingdom,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>103</v>
       </c>
@@ -5035,7 +5032,7 @@
         <v>CITRAM PYRENEES,Transport opérationnel,2.977,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>104</v>
       </c>
@@ -5068,7 +5065,7 @@
         <v>CITYWAY,Transport opérationnel,11.497,France,PIE,Oui,3,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>105</v>
       </c>
@@ -5101,7 +5098,7 @@
         <v>CMTS (MAYOTTE),Transport opérationnel,1.321,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>106</v>
       </c>
@@ -5134,7 +5131,7 @@
         <v>Compagnie des bacs de Loire,Transport opérationnel,3.136,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>107</v>
       </c>
@@ -5167,7 +5164,7 @@
         <v>COMPAGNIE DES TRANSPORTS DE LA RIVIEIRA,Transport opérationnel,5.32,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>108</v>
       </c>
@@ -5200,7 +5197,7 @@
         <v>Compagnie du Golfe,Transport opérationnel,1.669,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>109</v>
       </c>
@@ -5233,7 +5230,7 @@
         <v>Compagnie Ferroviaire Sud France,Transport opérationnel,12.262,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>110</v>
       </c>
@@ -5266,7 +5263,7 @@
         <v>Connex LCB,Transport opérationnel,16.518,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>111</v>
       </c>
@@ -5299,7 +5296,7 @@
         <v>CONNEX NANCY,Transport opérationnel,52.953,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
@@ -5332,7 +5329,7 @@
         <v>COURRIERS AUTOMOBILES PICARDS,Transport opérationnel,32.056,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -5365,7 +5362,7 @@
         <v>COURRIERS DE L'AUBE,Transport opérationnel,11.546,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
@@ -5398,7 +5395,7 @@
         <v>COURRIERS DE SEINE ET OISE,Transport opérationnel,25.703,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
@@ -5431,7 +5428,7 @@
         <v>CREUSOT MONTCEAU TRANSPORTS,Transport opérationnel,5.202,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>116</v>
       </c>
@@ -5464,7 +5461,7 @@
         <v>CROLARD SA,Transport opérationnel,15.416,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>117</v>
       </c>
@@ -5497,7 +5494,7 @@
         <v>CTPO,Transport opérationnel,52.712,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>118</v>
       </c>
@@ -5530,7 +5527,7 @@
         <v>DUNAND,Transport opérationnel,2.544,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>119</v>
       </c>
@@ -5563,7 +5560,7 @@
         <v>EAVT,Transport opérationnel,5.696,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>120</v>
       </c>
@@ -5596,7 +5593,7 @@
         <v>ECAUXMOBILITÉ,Transport opérationnel,2.31,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>121</v>
       </c>
@@ -5629,7 +5626,7 @@
         <v>Energie Bus,Transport opérationnel,0.006,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>122</v>
       </c>
@@ -5662,7 +5659,7 @@
         <v>EQUIVAL SAS NEW,Transport opérationnel,1.044,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>123</v>
       </c>
@@ -5695,7 +5692,7 @@
         <v>ESPACES SA,Transport opérationnel,0.929,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>124</v>
       </c>
@@ -5728,7 +5725,7 @@
         <v>ESTEREL CARS,Transport opérationnel,4.137,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>125</v>
       </c>
@@ -5761,7 +5758,7 @@
         <v>ETAC,Transport opérationnel,7.015,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>126</v>
       </c>
@@ -5794,7 +5791,7 @@
         <v>EUROLINES FRANCE,Transport opérationnel,35.805,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>127</v>
       </c>
@@ -5827,7 +5824,7 @@
         <v>EUROPE AUTOCARS,Transport opérationnel,2.033,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>128</v>
       </c>
@@ -5860,7 +5857,7 @@
         <v>FRIOUL IF EXPRESS,Transport opérationnel,3.894,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>129</v>
       </c>
@@ -5893,7 +5890,7 @@
         <v>GIE TRANSDEV FORMATION,Transport opérationnel,1.777,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>130</v>
       </c>
@@ -5926,7 +5923,7 @@
         <v>GUEDES,Transport opérationnel,3.819,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>131</v>
       </c>
@@ -5959,7 +5956,7 @@
         <v>HaBus GmbH Verkehrsbetriebe,Transport opérationnel,2.83101,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>132</v>
       </c>
@@ -5992,7 +5989,7 @@
         <v>HANDILIB,Transport opérationnel,0.212,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>133</v>
       </c>
@@ -6025,7 +6022,7 @@
         <v>HEIDENHEIMER VERKEHRSGESELLSCHAFT MBH,Transport opérationnel,8.289,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>134</v>
       </c>
@@ -6058,7 +6055,7 @@
         <v>INTERCENTRO,Transport opérationnel,5.742,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>135</v>
       </c>
@@ -6091,7 +6088,7 @@
         <v>INTERNORTE,Transport opérationnel,7.566,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>136</v>
       </c>
@@ -6124,7 +6121,7 @@
         <v>Interpiste,Transport opérationnel,4.955,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>137</v>
       </c>
@@ -6157,7 +6154,7 @@
         <v>INTERSUL,Transport opérationnel,1.104,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>138</v>
       </c>
@@ -6190,7 +6187,7 @@
         <v>INTERVAL,Transport opérationnel,6.837,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>139</v>
       </c>
@@ -6223,7 +6220,7 @@
         <v>JOALTO RB,Transport opérationnel,4.739,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>140</v>
       </c>
@@ -6256,7 +6253,7 @@
         <v>JRF,Transport opérationnel,0.071,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>141</v>
       </c>
@@ -6289,7 +6286,7 @@
         <v>JVP,Transport opérationnel,0.713,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>142</v>
       </c>
@@ -6322,7 +6319,7 @@
         <v>KUNEGEL SA,Transport opérationnel,21.867,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>143</v>
       </c>
@@ -6355,7 +6352,7 @@
         <v>LAON MOBILITE,Transport opérationnel,3.897,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>144</v>
       </c>
@@ -6388,7 +6385,7 @@
         <v>LES AUTOCARS BLANCS,Transport opérationnel,4.392,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>145</v>
       </c>
@@ -6421,7 +6418,7 @@
         <v>LES CARS MARIETTE,Transport opérationnel,0.535,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>146</v>
       </c>
@@ -6454,7 +6451,7 @@
         <v>LES CARS ROSE,Transport opérationnel,3.251,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>147</v>
       </c>
@@ -6487,7 +6484,7 @@
         <v>LES LIGNES DU VAR,Transport opérationnel,20.097,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>148</v>
       </c>
@@ -6520,7 +6517,7 @@
         <v>L'IMMOBILIERE DES FONTAINES,Transport opérationnel,3.302,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>149</v>
       </c>
@@ -6553,7 +6550,7 @@
         <v>LITTORAL NORD AUTOCARS,Transport opérationnel,11.334,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>150</v>
       </c>
@@ -6586,7 +6583,7 @@
         <v>MARTIN FRERES,Transport opérationnel,4.535,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>151</v>
       </c>
@@ -6619,7 +6616,7 @@
         <v>MERCUR,Transport opérationnel,0.601,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>152</v>
       </c>
@@ -6652,7 +6649,7 @@
         <v>MINHO BUS,Transport opérationnel,3.059,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>153</v>
       </c>
@@ -6685,7 +6682,7 @@
         <v>MOBILITE ET SERVICES,Transport opérationnel,2.433,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>154</v>
       </c>
@@ -6718,7 +6715,7 @@
         <v>MONDINENSE,Transport opérationnel,6.04,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>155</v>
       </c>
@@ -6751,7 +6748,7 @@
         <v>MONEGER,Transport opérationnel,1.919,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>156</v>
       </c>
@@ -6784,7 +6781,7 @@
         <v>MONTBLANC BUS,Transport opérationnel,10.353,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>157</v>
       </c>
@@ -6817,7 +6814,7 @@
         <v>MUSSO,Transport opérationnel,3.205,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>158</v>
       </c>
@@ -6850,7 +6847,7 @@
         <v>MVB,Transport opérationnel,3.558,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>159</v>
       </c>
@@ -6883,7 +6880,7 @@
         <v>N’4 MOBILITES,Transport opérationnel,12.736,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>160</v>
       </c>
@@ -6916,7 +6913,7 @@
         <v>Niederschlesische Verkehrsgesellshaft,Transport opérationnel,5.763,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>161</v>
       </c>
@@ -6949,7 +6946,7 @@
         <v>NORD-OSTSEEBAHN GmbH,Transport opérationnel,73.944,Germany,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>162</v>
       </c>
@@ -6982,7 +6979,7 @@
         <v>NORDWESTBAHN GmbH,Transport opérationnel,226.404,Germany,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>163</v>
       </c>
@@ -7015,7 +7012,7 @@
         <v>OCECARS,Transport opérationnel,5.441,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>164</v>
       </c>
@@ -7048,7 +7045,7 @@
         <v>ODULYS,Transport opérationnel,24.82,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>165</v>
       </c>
@@ -7081,7 +7078,7 @@
         <v>OMNIBUS-VERKEHR RUOFF GMBH,Transport opérationnel,20.189,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>166</v>
       </c>
@@ -7114,7 +7111,7 @@
         <v>Ostseeland Verkehr GmbH,Transport opérationnel,38.865,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>167</v>
       </c>
@@ -7147,7 +7144,7 @@
         <v>Palatinabus GmbH,Transport opérationnel,8.451,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>168</v>
       </c>
@@ -7180,7 +7177,7 @@
         <v>Passagers Pôle Services,Transport opérationnel,11.442,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>169</v>
       </c>
@@ -7213,7 +7210,7 @@
         <v>PAYS D’OC MOBILITES,Transport opérationnel,13.336,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>170</v>
       </c>
@@ -7246,7 +7243,7 @@
         <v>POLE ILE DE FRANCE IMMOBILIER AND FACILI,Transport opérationnel,3.058,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>171</v>
       </c>
@@ -7279,7 +7276,7 @@
         <v>PREVOST,Transport opérationnel,3.076,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>172</v>
       </c>
@@ -7312,7 +7309,7 @@
         <v>PROXIWAY(y compris étbs),Transport opérationnel,3.655,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>173</v>
       </c>
@@ -7345,7 +7342,7 @@
         <v>RAPIDES DE BOURGOGNE,Transport opérationnel,11.007,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>174</v>
       </c>
@@ -7378,7 +7375,7 @@
         <v>RAPIDES DE COTE D'AZUR,Transport opérationnel,24.893,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>175</v>
       </c>
@@ -7411,7 +7408,7 @@
         <v>RAPIDES DE LA MEUSE,Transport opérationnel,6.049,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>176</v>
       </c>
@@ -7444,7 +7441,7 @@
         <v>RAPIDES DE SAONE ET LOIRE,Transport opérationnel,14.005,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>177</v>
       </c>
@@ -7477,7 +7474,7 @@
         <v>RAPIDES DU LITTORAL,Transport opérationnel,10.814,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>178</v>
       </c>
@@ -7510,7 +7507,7 @@
         <v>RAPIDES DU VAL DE LOIRE,Transport opérationnel,15.62,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>179</v>
       </c>
@@ -7543,7 +7540,7 @@
         <v>RBI,Transport opérationnel,8.955,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>180</v>
       </c>
@@ -7576,7 +7573,7 @@
         <v>RBL,Transport opérationnel,25.17,Portugal,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>181</v>
       </c>
@@ -7609,7 +7606,7 @@
         <v>REDM,Transport opérationnel,16.72,Portugal,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>182</v>
       </c>
@@ -7642,7 +7639,7 @@
         <v>Rhein-Bus Verkehrsbetrieb GmbH,Transport opérationnel,2.25012,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>183</v>
       </c>
@@ -7675,7 +7672,7 @@
         <v>RMTT,Transport opérationnel,64.383,France,PIE,Oui,3,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>184</v>
       </c>
@@ -7708,7 +7705,7 @@
         <v>R'ORLY,Transport opérationnel,3.354,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>185</v>
       </c>
@@ -7741,7 +7738,7 @@
         <v>SAGEB (co -cac),Transport opérationnel,26.88091,France,PIE,Oui,2,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>186</v>
       </c>
@@ -7774,7 +7771,7 @@
         <v>SAINT QUENTIN MOBILITE,Transport opérationnel,8.343,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>187</v>
       </c>
@@ -7807,7 +7804,7 @@
         <v>SCHAUMBURGER VERKEHRS-GESELLSCHAFT MBH (,Transport opérationnel,5.126,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>188</v>
       </c>
@@ -7840,7 +7837,7 @@
         <v>SERI 49,Transport opérationnel,9.119,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>189</v>
       </c>
@@ -7873,7 +7870,7 @@
         <v>SETRA,Transport opérationnel,15.195,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>190</v>
       </c>
@@ -7906,7 +7903,7 @@
         <v>SITE.OISE,Transport opérationnel,2.27,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>191</v>
       </c>
@@ -7939,7 +7936,7 @@
         <v>SMEA,Transport opérationnel,2.566,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>192</v>
       </c>
@@ -7972,7 +7969,7 @@
         <v>SNA AJACCIENS,Transport opérationnel,7.153,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>193</v>
       </c>
@@ -8005,7 +8002,7 @@
         <v>SNEG,Transport opérationnel,2.053,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>194</v>
       </c>
@@ -8038,7 +8035,7 @@
         <v>SOARES,Transport opérationnel,5.547,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>195</v>
       </c>
@@ -8071,7 +8068,7 @@
         <v>SOCIETE NORMANDIE VOYAGE,Transport opérationnel,7.791,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>196</v>
       </c>
@@ -8104,7 +8101,7 @@
         <v>SOCIETE NOUVELLE CPL,Transport opérationnel,7.161,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>197</v>
       </c>
@@ -8137,7 +8134,7 @@
         <v>SOLEA,Transport opérationnel,43.711,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>198</v>
       </c>
@@ -8170,7 +8167,7 @@
         <v>SOMETRAR (concessionnaire rouen),Transport opérationnel,92.818,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>199</v>
       </c>
@@ -8203,7 +8200,7 @@
         <v>ST BRIEUC MOBILITE,Transport opérationnel,12.262,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>200</v>
       </c>
@@ -8236,7 +8233,7 @@
         <v>ST2N,Transport opérationnel,123.782,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>201</v>
       </c>
@@ -8269,7 +8266,7 @@
         <v>STA CHALONS,Transport opérationnel,10.559,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
         <v>202</v>
       </c>
@@ -8302,7 +8299,7 @@
         <v>STADTBUS SCHWÄBISCH HALL GMBH,Transport opérationnel,8.173,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>203</v>
       </c>
@@ -8335,7 +8332,7 @@
         <v>STAO - PL,Transport opérationnel,62.84,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>204</v>
       </c>
@@ -8368,7 +8365,7 @@
         <v>STBC - TUC,Transport opérationnel,8.467,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>205</v>
       </c>
@@ -8401,7 +8398,7 @@
         <v>STCE,Transport opérationnel,7.357,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>206</v>
       </c>
@@ -8434,7 +8431,7 @@
         <v>STDE,Transport opérationnel,22.751,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>207</v>
       </c>
@@ -8467,7 +8464,7 @@
         <v>STE DES TRANSPORTS D'ANNONAY DAVEZIEUX,Transport opérationnel,1.357,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>208</v>
       </c>
@@ -8500,7 +8497,7 @@
         <v>STE DES TRANSPORTS DEP DU GARD,Transport opérationnel,23.879,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>209</v>
       </c>
@@ -8533,7 +8530,7 @@
         <v>STE DES TRANSPORTS DEP DU LOIR ET CHER,Transport opérationnel,14.936,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>210</v>
       </c>
@@ -8566,7 +8563,7 @@
         <v>STE FOURAS AIX IG,Transport opérationnel,1.758,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>211</v>
       </c>
@@ -8599,7 +8596,7 @@
         <v>STRAV,Transport opérationnel,27.32,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>212</v>
       </c>
@@ -8632,7 +8629,7 @@
         <v>STUD,Transport opérationnel,3.743,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>213</v>
       </c>
@@ -8665,7 +8662,7 @@
         <v>SUD CARS,Transport opérationnel,1.536,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>214</v>
       </c>
@@ -8698,7 +8695,7 @@
         <v>SUD EST MOBILITES,Transport opérationnel,30.431,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>215</v>
       </c>
@@ -8731,7 +8728,7 @@
         <v>SVP Stadtverkehr Pforzheim GmbH &amp; Co. KG,Transport opérationnel,18.509,Germany,PIE,Oui,2,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>216</v>
       </c>
@@ -8764,7 +8761,7 @@
         <v>TCAR (exploitante rouen),Transport opérationnel,84.832,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>217</v>
       </c>
@@ -8797,7 +8794,7 @@
         <v>TCR AVIGNON,Transport opérationnel,30.106,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
         <v>218</v>
       </c>
@@ -8830,7 +8827,7 @@
         <v>TELEPHERIQUE DU SALEVE,Transport opérationnel,0.808,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>219</v>
       </c>
@@ -8863,7 +8860,7 @@
         <v>TENEMETRO (optionnel),Transport opérationnel,1.798,Spain,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>221</v>
       </c>
@@ -8896,7 +8893,7 @@
         <v>TIPS,Transport opérationnel,5.915,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>222</v>
       </c>
@@ -8929,7 +8926,7 @@
         <v>TPB (co-cac avec sageb),Transport opérationnel,5.38265,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>223</v>
       </c>
@@ -8962,7 +8959,7 @@
         <v>TPMR STRASBOURG (MOBISTRAS),Transport opérationnel,1.281,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>224</v>
       </c>
@@ -8995,7 +8992,7 @@
         <v>TPMR TOULOUSE,Transport opérationnel,3.544,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>225</v>
       </c>
@@ -9028,7 +9025,7 @@
         <v>TPMR TOURS,Transport opérationnel,1.809,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>226</v>
       </c>
@@ -9061,7 +9058,7 @@
         <v>TPT-SGPS,Transport opérationnel,0.109,Portugal,PIE,Oui,3,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>227</v>
       </c>
@@ -9094,7 +9091,7 @@
         <v>TRA SA,Transport opérationnel,56.771,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>228</v>
       </c>
@@ -9127,7 +9124,7 @@
         <v>Trac-Piste,Transport opérationnel,6.528,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>229</v>
       </c>
@@ -9160,7 +9157,7 @@
         <v>TRAFFIC AIR SERVICES,Transport opérationnel,2.21,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>230</v>
       </c>
@@ -9193,7 +9190,7 @@
         <v>TRANS PROVENCE,Transport opérationnel,8.11,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>231</v>
       </c>
@@ -9226,7 +9223,7 @@
         <v>TRANS VAL DE France,Transport opérationnel,7.57,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>232</v>
       </c>
@@ -9259,7 +9256,7 @@
         <v>TRANS VAL D'OISE,Transport opérationnel,3.957,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
         <v>233</v>
       </c>
@@ -9292,7 +9289,7 @@
         <v>TRANSAMO,Transport opérationnel,10.455,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
         <v>234</v>
       </c>
@@ -9325,7 +9322,7 @@
         <v>TRAMWAY DE RABAT,Transport opérationnel,8.95471014492754,Tunisia,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
         <v>235</v>
       </c>
@@ -9358,7 +9355,7 @@
         <v>TRANSAVOIE,Transport opérationnel,16.413,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>236</v>
       </c>
@@ -9391,7 +9388,7 @@
         <v>TRANSCOVIZELA,Transport opérationnel,2.902,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
         <v>237</v>
       </c>
@@ -9424,7 +9421,7 @@
         <v>TRANSDATA,Transport opérationnel,14.107,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>238</v>
       </c>
@@ -9457,7 +9454,7 @@
         <v>TRANSDEV,Transport opérationnel,87.7,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
         <v>239</v>
       </c>
@@ -9490,7 +9487,7 @@
         <v>TRANSDEV AEROPORT TRANSIT,Transport opérationnel,6.795,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
         <v>240</v>
       </c>
@@ -9523,7 +9520,7 @@
         <v>TRANSDEV ALPES,Transport opérationnel,1.245,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
         <v>241</v>
       </c>
@@ -9556,7 +9553,7 @@
         <v>TRANSDEV ALSACE,Transport opérationnel,6.952,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>242</v>
       </c>
@@ -9589,7 +9586,7 @@
         <v>TRANSDEV AUVERGNE,Transport opérationnel,1.876,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>243</v>
       </c>
@@ -9622,7 +9619,7 @@
         <v>TRANSDEV DAUPHINE,Transport opérationnel,3.616,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>244</v>
       </c>
@@ -9655,7 +9652,7 @@
         <v>GREEN TOMATO CARS,Transport opérationnel,9.76172839506173,United Kingdom,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>245</v>
       </c>
@@ -9688,7 +9685,7 @@
         <v>TRANSDEV EQUIPAGES,Transport opérationnel,9.112,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>246</v>
       </c>
@@ -9721,7 +9718,7 @@
         <v>TRANSDEV EST,Transport opérationnel,0.237,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>247</v>
       </c>
@@ -9754,7 +9751,7 @@
         <v>TRANSDEV MOBILIDADE,Transport opérationnel,0.665,Portugal,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>248</v>
       </c>
@@ -9787,7 +9784,7 @@
         <v>TRANSDEV MONTPELLIER,Transport opérationnel,12.351,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
         <v>249</v>
       </c>
@@ -9820,7 +9817,7 @@
         <v>TRANSDEV NORD EST,Transport opérationnel,0.092,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>250</v>
       </c>
@@ -9853,7 +9850,7 @@
         <v>TRANSDEV OUTRE MER,Transport opérationnel,1.137,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
         <v>251</v>
       </c>
@@ -9886,7 +9883,7 @@
         <v>TRANSDEV PARIS EST,Transport opérationnel,0.722,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
         <v>252</v>
       </c>
@@ -9919,7 +9916,7 @@
         <v>TRANSDEV PARIS SUD,Transport opérationnel,0.223,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
         <v>253</v>
       </c>
@@ -9952,7 +9949,7 @@
         <v>TRANSDEV PAYS D’OR,Transport opérationnel,16.127,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>254</v>
       </c>
@@ -9985,7 +9982,7 @@
         <v>TRANSDEV REIMS,Transport opérationnel,48.596,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>255</v>
       </c>
@@ -10018,7 +10015,7 @@
         <v>TRANSDEV SUD,Transport opérationnel,0.141,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>256</v>
       </c>
@@ -10051,7 +10048,7 @@
         <v>TRANSDEV SUD OUEST,Transport opérationnel,7.163,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>257</v>
       </c>
@@ -10084,7 +10081,7 @@
         <v>TRANS'L,Transport opérationnel,10.084,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>258</v>
       </c>
@@ -10117,7 +10114,7 @@
         <v>TRANSPORT BERARD,Transport opérationnel,2.635,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>259</v>
       </c>
@@ -10150,7 +10147,7 @@
         <v>Transport Schon et Brullard,Transport opérationnel,9.328,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>260</v>
       </c>
@@ -10183,7 +10180,7 @@
         <v>Veolia Transport Sydney P/L,Transport opérationnel,11.8690476190476,Australia,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>261</v>
       </c>
@@ -10216,7 +10213,7 @@
         <v>TRANSPORTS D'EURE ET LOIR,Transport opérationnel,20.557,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>262</v>
       </c>
@@ -10249,7 +10246,7 @@
         <v>TRANSPORTS DU VAL DE SEINE,Transport opérationnel,8.536,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>263</v>
       </c>
@@ -10282,7 +10279,7 @@
         <v>TRANSPORTS DU VAL D'OISE,Transport opérationnel,30.227,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>264</v>
       </c>
@@ -10315,7 +10312,7 @@
         <v>Transports en commun de Combs La Ville,Transport opérationnel,3.886,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>265</v>
       </c>
@@ -10348,7 +10345,7 @@
         <v>TRANSPORTS LIBOURNAIS,Transport opérationnel,1.48,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>266</v>
       </c>
@@ -10381,7 +10378,7 @@
         <v>TRANSPORTS MARNE ET MORIN,Transport opérationnel,34.915,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>267</v>
       </c>
@@ -10414,7 +10411,7 @@
         <v>TRANSPORTS PUBLICS DE L'AGGLOMERATION ST,Transport opérationnel,58.416,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>268</v>
       </c>
@@ -10447,7 +10444,7 @@
         <v>TRANSREGIO NEW,Transport opérationnel,36.968,Germany,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>269</v>
       </c>
@@ -10480,7 +10477,7 @@
         <v>TRANS-SERVICES,Transport opérationnel,1.407,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>270</v>
       </c>
@@ -10513,7 +10510,7 @@
         <v>TRANSVILLES,Transport opérationnel,45.513,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>271</v>
       </c>
@@ -10546,7 +10543,7 @@
         <v>VEOLIA TRANSPORT WA,Transport opérationnel,13.3738095238095,Australia,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>272</v>
       </c>
@@ -10579,7 +10576,7 @@
         <v>UTE Trambaix  (optionnel),Transport opérationnel,5.15691,Spain,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
         <v>273</v>
       </c>
@@ -10612,7 +10609,7 @@
         <v>UTE Trambesos (optionnel),Transport opérationnel,4.54806,Spain,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>274</v>
       </c>
@@ -10645,7 +10642,7 @@
         <v>VAD,Transport opérationnel,7.845,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
         <v>275</v>
       </c>
@@ -10678,7 +10675,7 @@
         <v>VAL D'EUROPE AIRPORT,Transport opérationnel,9.085,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>276</v>
       </c>
@@ -10711,7 +10708,7 @@
         <v>VAROISE DE TRANSPORTS,Transport opérationnel,8.773,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>277</v>
       </c>
@@ -10744,7 +10741,7 @@
         <v>VE Airport,Transport opérationnel,1.081,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>278</v>
       </c>
@@ -10777,7 +10774,7 @@
         <v>VELOWAY,Transport opérationnel,3.786,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>279</v>
       </c>
@@ -10810,7 +10807,7 @@
         <v>VEOLIA EDF NICE AUTO PARTAGE,Transport opérationnel,2.0699,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>280</v>
       </c>
@@ -10843,7 +10840,7 @@
         <v>TDV TSL (BRISBANE) - IG,Transport opérationnel,15.1285714285714,Australia,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
         <v>281</v>
       </c>
@@ -10876,7 +10873,7 @@
         <v>VEOLIA TRANSDEV,Transport opérationnel,25.212,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>282</v>
       </c>
@@ -10909,7 +10906,7 @@
         <v>VEOLIA TRANSDEV CHAMBERY,Transport opérationnel,0.938,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>283</v>
       </c>
@@ -10942,7 +10939,7 @@
         <v>VEOLIA TRANSDEV SAINT-DIZIER,Transport opérationnel,1.289,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>284</v>
       </c>
@@ -10975,7 +10972,7 @@
         <v>VEOLIA TRANSPORT AEROPORT DE NIMES,Transport opérationnel,6.594,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>285</v>
       </c>
@@ -11008,7 +11005,7 @@
         <v>VEOLIA TRANSPORT ARLES,Transport opérationnel,7.16,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
         <v>286</v>
       </c>
@@ -11041,7 +11038,7 @@
         <v>VEOLIA TRANSPORT BRIVE,Transport opérationnel,4.002,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>287</v>
       </c>
@@ -11074,7 +11071,7 @@
         <v>VEOLIA TRANSPORT CARCASSONNE,Transport opérationnel,8.059,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>288</v>
       </c>
@@ -11107,7 +11104,7 @@
         <v>VEOLIA TRANSPORT DU MARSAN,Transport opérationnel,2.394,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
         <v>289</v>
       </c>
@@ -11140,7 +11137,7 @@
         <v>VEOLIA TRANSPORT DUBLIN LIGHT RAIL LTD,Transport opérationnel,52.123,Ireland,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
         <v>291</v>
       </c>
@@ -11173,7 +11170,7 @@
         <v>VEOLIA TRANSPORT EST,Transport opérationnel,1.019,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
         <v>292</v>
       </c>
@@ -11206,7 +11203,7 @@
         <v>VEOLIA TRANSPORT MEDITERRANNEE,Transport opérationnel,4.558,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
         <v>293</v>
       </c>
@@ -11239,7 +11236,7 @@
         <v>Veolia Transport Normandie Interurbain,Transport opérationnel,80.549,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
         <v>294</v>
       </c>
@@ -11272,7 +11269,7 @@
         <v>VEOLIA TRANSPORT PAYS ROCHEFORTAIS,Transport opérationnel,3.932,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
         <v>295</v>
       </c>
@@ -11305,7 +11302,7 @@
         <v>VEOLIA TRANSPORT PERPIGNAN,Transport opérationnel,9.178,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
         <v>296</v>
       </c>
@@ -11338,7 +11335,7 @@
         <v>VEOLIA TRANSPORT POITOU CHARENTES,Transport opérationnel,25.732,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>297</v>
       </c>
@@ -11371,7 +11368,7 @@
         <v>VÉOLIA TRANSPORT RHÔNE ALPES I,Transport opérationnel,52.613,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
         <v>298</v>
       </c>
@@ -11404,7 +11401,7 @@
         <v>VEOLIA TRANSPORT ROANNE,Transport opérationnel,6.18,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>299</v>
       </c>
@@ -11437,7 +11434,7 @@
         <v>VEOLIA TRANSPORT ROYAN ATLANTIQUE,Transport opérationnel,4.359,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
         <v>300</v>
       </c>
@@ -11470,7 +11467,7 @@
         <v>VEOLIA TRANSPORT SIEGE ( y compris étbs),Transport opérationnel,166.445,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>301</v>
       </c>
@@ -11503,7 +11500,7 @@
         <v>VEOLIA TRANSPORT ST MICHEL,Transport opérationnel,3.649,France,PIE,Oui,1,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>302</v>
       </c>
@@ -11536,7 +11533,7 @@
         <v>VEOLIA TRANSPORT URBAIN (y compris éts hors VTU Cannes),Transport opérationnel,48.926,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>303</v>
       </c>
@@ -11569,7 +11566,7 @@
         <v>VEOLIA TRANSPORT VALENCE,Transport opérationnel,21.902,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>304</v>
       </c>
@@ -11602,7 +11599,7 @@
         <v>VEOLIA VERKEHR GMBH,Transport opérationnel,18.698,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>305</v>
       </c>
@@ -11635,7 +11632,7 @@
         <v>Veolia Verkehr Regio GmbH,Transport opérationnel,1.096,Germany,PIE,Oui,3,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>306</v>
       </c>
@@ -11668,7 +11665,7 @@
         <v>VEOLIA VERKEHR REGIO OST GMBH,Transport opérationnel,34.182,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>307</v>
       </c>
@@ -11701,7 +11698,7 @@
         <v>Veolia Verkehr Rheinland GmbH,Transport opérationnel,15.906,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>308</v>
       </c>
@@ -11734,7 +11731,7 @@
         <v>VEOLIA VERKEHR RHEIN-MAIN GMBH,Transport opérationnel,26.639,Germany,PIE,Oui,3,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>309</v>
       </c>
@@ -11767,7 +11764,7 @@
         <v>Veolia Verkehr Sachsen-Anhalt GmbH,Transport opérationnel,34.308,Germany,PIE,Oui,3,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>310</v>
       </c>
@@ -11800,7 +11797,7 @@
         <v>Verkehrsgesellshaft Görlitz GmbH,Transport opérationnel,3.72,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>311</v>
       </c>
@@ -11833,7 +11830,7 @@
         <v>VILLENEUVE MOBILITE,Transport opérationnel,1.433,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>312</v>
       </c>
@@ -11866,7 +11863,7 @@
         <v>VISUAL,Transport opérationnel,19.648,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>313</v>
       </c>
@@ -11899,7 +11896,7 @@
         <v>VLD,Transport opérationnel,16.235,Germany,PIE,Oui,2,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>314</v>
       </c>
@@ -11932,7 +11929,7 @@
         <v>VT AGGLOMÉRATION DE BAYONNE,Transport opérationnel,22.453,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>315</v>
       </c>
@@ -11965,7 +11962,7 @@
         <v>VT ALPES MARITIMES,Transport opérationnel,11.659,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>316</v>
       </c>
@@ -11998,7 +11995,7 @@
         <v>VT FOUGERES,Transport opérationnel,1.224,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>317</v>
       </c>
@@ -12031,7 +12028,7 @@
         <v>VT IDF CSP CONTRÔLE,Transport opérationnel,2.794,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>318</v>
       </c>
@@ -12064,7 +12061,7 @@
         <v>VT MIDI PYRÉNÉES ,Transport opérationnel,19.412,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>319</v>
       </c>
@@ -12097,7 +12094,7 @@
         <v>VT PICARDIE,Transport opérationnel,10.333,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>320</v>
       </c>
@@ -12130,7 +12127,7 @@
         <v>VT SERVICE REUNION,Transport opérationnel,5.942,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
         <v>321</v>
       </c>
@@ -12163,7 +12160,7 @@
         <v>VT SHUTTLE FRANCE,Transport opérationnel,3.045,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
         <v>322</v>
       </c>
@@ -12196,7 +12193,7 @@
         <v>VT VOSGES,Transport opérationnel,3.929,France,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>323</v>
       </c>
@@ -12229,7 +12226,7 @@
         <v>VTLV,Transport opérationnel,31.271,France,PIE,Oui,2,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
         <v>324</v>
       </c>
@@ -12262,7 +12259,7 @@
         <v>Veolia Transport Auckland P/L,Transport opérationnel,42.1204601637178,United Kingdom,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
         <v>325</v>
       </c>
@@ -12295,7 +12292,7 @@
         <v>West-Bus GmbH,Transport opérationnel,13.96941,Germany,PIE,Oui,4,TAX/PAY,0</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>326</v>
       </c>
@@ -12336,21 +12333,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuille2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Feuille2"/>
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -12368,7 +12365,7 @@
         <v>Activity,Min,Structure,Base</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>327</v>
       </c>
@@ -12386,7 +12383,7 @@
         <v>Opérateur Téléphonie Complexe,7000,A1.1,3423</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>327</v>
       </c>
@@ -12404,7 +12401,7 @@
         <v>Opérateur Téléphonie Complexe,3000,A1.1,2623</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>327</v>
       </c>
@@ -12422,7 +12419,7 @@
         <v>Opérateur Téléphonie Complexe,1500,A1.1,1873</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>327</v>
       </c>
@@ -12440,7 +12437,7 @@
         <v>Opérateur Téléphonie Complexe,750,A1.1,1273</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>327</v>
       </c>
@@ -12458,7 +12455,7 @@
         <v>Opérateur Téléphonie Complexe,300,A1.1,733</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>327</v>
       </c>
@@ -12476,7 +12473,7 @@
         <v>Opérateur Téléphonie Complexe,150,A1.2,433</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>327</v>
       </c>
@@ -12494,7 +12491,7 @@
         <v>Opérateur Téléphonie Complexe,60,A1.2,235</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>327</v>
       </c>
@@ -12512,7 +12509,7 @@
         <v>Opérateur Téléphonie Complexe,30,A1.2,160</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>327</v>
       </c>
@@ -12530,7 +12527,7 @@
         <v>Opérateur Téléphonie Complexe,15,A1.3,140</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>327</v>
       </c>
@@ -12545,10 +12542,10 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>Opérateur Téléphonie Complexe,7,5,A1.3,80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>Opérateur Téléphonie Complexe,7.5,A1.3,80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>327</v>
       </c>
@@ -12563,10 +12560,10 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>Opérateur Téléphonie Complexe,1,5,A1.3,56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>Opérateur Téléphonie Complexe,1.5,A1.3,56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>327</v>
       </c>
@@ -12584,7 +12581,7 @@
         <v>Opérateur Téléphonie Complexe,0,A1.3,32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>331</v>
       </c>
@@ -12602,7 +12599,7 @@
         <v>Opérateur Téléphonie Simple,7000,A1.1,2610</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>331</v>
       </c>
@@ -12620,7 +12617,7 @@
         <v>Opérateur Téléphonie Simple,3000,A1.1,1810</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>331</v>
       </c>
@@ -12638,7 +12635,7 @@
         <v>Opérateur Téléphonie Simple,1500,A1.1,1360</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>331</v>
       </c>
@@ -12656,7 +12653,7 @@
         <v>Opérateur Téléphonie Simple,750,A1.1,985</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>331</v>
       </c>
@@ -12674,7 +12671,7 @@
         <v>Opérateur Téléphonie Simple,300,A1.1,535</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>331</v>
       </c>
@@ -12692,7 +12689,7 @@
         <v>Opérateur Téléphonie Simple,150,A1.2,355</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>331</v>
       </c>
@@ -12710,7 +12707,7 @@
         <v>Opérateur Téléphonie Simple,60,A1.2,220</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>331</v>
       </c>
@@ -12728,7 +12725,7 @@
         <v>Opérateur Téléphonie Simple,30,A1.2,160</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>331</v>
       </c>
@@ -12746,7 +12743,7 @@
         <v>Opérateur Téléphonie Simple,15,A1.3,140</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>331</v>
       </c>
@@ -12761,10 +12758,10 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>Opérateur Téléphonie Simple,7,5,A1.3,80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>Opérateur Téléphonie Simple,7.5,A1.3,80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>331</v>
       </c>
@@ -12779,10 +12776,10 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>Opérateur Téléphonie Simple,1,5,A1.3,56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>Opérateur Téléphonie Simple,1.5,A1.3,56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>331</v>
       </c>
@@ -12800,7 +12797,7 @@
         <v>Opérateur Téléphonie Simple,0,A1.3,32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>332</v>
       </c>
@@ -12818,7 +12815,7 @@
         <v>Déchets &amp; Recyclage,200,B1.1,544</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>332</v>
       </c>
@@ -12836,7 +12833,7 @@
         <v>Déchets &amp; Recyclage,150,B1.1,496</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>332</v>
       </c>
@@ -12854,7 +12851,7 @@
         <v>Déchets &amp; Recyclage,100,B1.2,344</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>332</v>
       </c>
@@ -12872,7 +12869,7 @@
         <v>Déchets &amp; Recyclage,50,B1.3,184</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>332</v>
       </c>
@@ -12890,7 +12887,7 @@
         <v>Déchets &amp; Recyclage,5,B1.4,96</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>332</v>
       </c>
@@ -12908,7 +12905,7 @@
         <v>Déchets &amp; Recyclage,1,B1.5,48</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>332</v>
       </c>
@@ -12926,7 +12923,7 @@
         <v>Déchets &amp; Recyclage,0,B1.6,0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -12944,7 +12941,7 @@
         <v>Transport opérationnel,0,C2.1,40</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -12962,7 +12959,7 @@
         <v>Transport opérationnel,5,C2.1,68</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -12980,7 +12977,7 @@
         <v>Transport opérationnel,10,C2.1,70</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -12998,7 +12995,7 @@
         <v>Transport opérationnel,15,C2.2,99</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -13016,7 +13013,7 @@
         <v>Transport opérationnel,20,C2.2,108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -13034,7 +13031,7 @@
         <v>Transport opérationnel,25,C2.2,162</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -13052,7 +13049,7 @@
         <v>Transport opérationnel,30,C2.2,180</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -13070,7 +13067,7 @@
         <v>Transport opérationnel,35,C2.3,280</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -13088,7 +13085,7 @@
         <v>Transport opérationnel,55,C2.3,340</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -13106,7 +13103,7 @@
         <v>Transport opérationnel,100,C2.3,535</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>340</v>
       </c>
@@ -13124,7 +13121,7 @@
         <v>Edition,0,D3.1,27</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>340</v>
       </c>
@@ -13139,10 +13136,10 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>Edition,2,5,D3.2,65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+        <v>Edition,2.5,D3.2,65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>340</v>
       </c>
@@ -13160,7 +13157,7 @@
         <v>Edition,5,D3.3,88</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>340</v>
       </c>
@@ -13178,7 +13175,7 @@
         <v>Edition,30,D3.4,100</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>340</v>
       </c>
@@ -13196,7 +13193,7 @@
         <v>Edition,50,D3.5,160</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>346</v>
       </c>
@@ -13214,7 +13211,7 @@
         <v>Hôtellerie,0,E1.1,50</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>346</v>
       </c>
@@ -13232,7 +13229,7 @@
         <v>Hôtellerie,1,E1.2,65</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>346</v>
       </c>
@@ -13250,7 +13247,7 @@
         <v>Hôtellerie,2,E1.3,70</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>346</v>
       </c>
@@ -13268,7 +13265,7 @@
         <v>Hôtellerie,4,E1.4,85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>346</v>
       </c>
@@ -13286,7 +13283,7 @@
         <v>Hôtellerie,5,E1.5,90</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>352</v>
       </c>
@@ -13304,7 +13301,7 @@
         <v>Communication,0,F1.1,78</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>352</v>
       </c>
@@ -13322,7 +13319,7 @@
         <v>Communication,25,F1.2,332</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>352</v>
       </c>
@@ -13340,7 +13337,7 @@
         <v>Communication,50,F1.3,494</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>356</v>
       </c>
@@ -13358,7 +13355,7 @@
         <v>Conseil en innovation et ingénierie,0,G2.1,16</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>356</v>
       </c>
@@ -13376,7 +13373,7 @@
         <v>Conseil en innovation et ingénierie,2,G2.1,96</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>356</v>
       </c>
@@ -13394,7 +13391,7 @@
         <v>Conseil en innovation et ingénierie,10,G2.2,107</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>356</v>
       </c>
@@ -13412,7 +13409,7 @@
         <v>Conseil en innovation et ingénierie,25,G2.2,207</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>356</v>
       </c>
@@ -13430,7 +13427,7 @@
         <v>Conseil en innovation et ingénierie,60,G2.3,412</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>356</v>
       </c>
@@ -13448,7 +13445,7 @@
         <v>Conseil en innovation et ingénierie,90,G2.3,584</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>356</v>
       </c>
@@ -13466,7 +13463,7 @@
         <v>Conseil en innovation et ingénierie,200,G2.3,1700</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>360</v>
       </c>
@@ -13484,7 +13481,7 @@
         <v>Conseil et support informatique,0,H1,20</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>360</v>
       </c>
@@ -13502,7 +13499,7 @@
         <v>Conseil et support informatique,1,H2.1,35</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>360</v>
       </c>
@@ -13520,7 +13517,7 @@
         <v>Conseil et support informatique,10,H2.2,55</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>360</v>
       </c>
@@ -13538,7 +13535,7 @@
         <v>Conseil et support informatique,50,H2.3,80</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>365</v>
       </c>
@@ -13556,7 +13553,7 @@
         <v>Edition de logiciels applicatifs,0,H1,20</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>365</v>
       </c>
@@ -13574,7 +13571,7 @@
         <v>Edition de logiciels applicatifs,1,H2.1,40</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>365</v>
       </c>
@@ -13592,7 +13589,7 @@
         <v>Edition de logiciels applicatifs,10,H2.2,55</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>365</v>
       </c>
@@ -13610,7 +13607,7 @@
         <v>Edition de logiciels applicatifs,50,H2.3,80</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>366</v>
       </c>
@@ -13628,7 +13625,7 @@
         <v>Location financement,0,H1,20</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>366</v>
       </c>
@@ -13646,7 +13643,7 @@
         <v>Location financement,1,H2.2,50</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>366</v>
       </c>
@@ -13664,7 +13661,7 @@
         <v>Location financement,50,H2.3,70</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>367</v>
       </c>
@@ -13682,7 +13679,7 @@
         <v>Construction,0,I2.1,35</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>367</v>
       </c>
@@ -13700,7 +13697,7 @@
         <v>Construction,5,I2.1,90</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>367</v>
       </c>
@@ -13718,7 +13715,7 @@
         <v>Construction,20,I2.1,115</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>367</v>
       </c>
@@ -13736,7 +13733,7 @@
         <v>Construction,40,I2.2,150</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>367</v>
       </c>
@@ -13754,7 +13751,7 @@
         <v>Construction,70,I2.2,175</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>367</v>
       </c>
@@ -13772,7 +13769,7 @@
         <v>Construction,150,I2.2,300</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>367</v>
       </c>
@@ -13790,7 +13787,7 @@
         <v>Construction,400,I2.2,500</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>367</v>
       </c>
@@ -13808,7 +13805,7 @@
         <v>Construction,800,I2.3,700</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>367</v>
       </c>
@@ -13826,7 +13823,7 @@
         <v>Construction,1000,I2.3,1000</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>367</v>
       </c>
@@ -13851,34 +13848,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuille3" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Feuille3"/>
   <dimension ref="A1:Q294"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -13931,7 +13928,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>328</v>
       </c>
@@ -13985,7 +13982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>329</v>
       </c>
@@ -14039,7 +14036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>330</v>
       </c>
@@ -14093,7 +14090,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>333</v>
       </c>
@@ -14147,7 +14144,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>334</v>
       </c>
@@ -14201,7 +14198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>335</v>
       </c>
@@ -14255,7 +14252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>336</v>
       </c>
@@ -14309,7 +14306,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>337</v>
       </c>
@@ -14363,7 +14360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>338</v>
       </c>
@@ -14417,7 +14414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>13</v>
       </c>
@@ -14471,7 +14468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
@@ -14525,7 +14522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>339</v>
       </c>
@@ -14579,7 +14576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>341</v>
       </c>
@@ -14633,7 +14630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>342</v>
       </c>
@@ -14687,7 +14684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>343</v>
       </c>
@@ -14741,7 +14738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>344</v>
       </c>
@@ -14795,7 +14792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>345</v>
       </c>
@@ -14849,7 +14846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>347</v>
       </c>
@@ -14903,7 +14900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>348</v>
       </c>
@@ -14957,7 +14954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>349</v>
       </c>
@@ -15011,7 +15008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>350</v>
       </c>
@@ -15065,7 +15062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>351</v>
       </c>
@@ -15119,7 +15116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>353</v>
       </c>
@@ -15173,7 +15170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>354</v>
       </c>
@@ -15227,7 +15224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>355</v>
       </c>
@@ -15281,7 +15278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>357</v>
       </c>
@@ -15335,7 +15332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>358</v>
       </c>
@@ -15389,7 +15386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>359</v>
       </c>
@@ -15443,7 +15440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>362</v>
       </c>
@@ -15497,7 +15494,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>363</v>
       </c>
@@ -15551,7 +15548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>364</v>
       </c>
@@ -15605,7 +15602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>361</v>
       </c>
@@ -15659,7 +15656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>368</v>
       </c>
@@ -15713,7 +15710,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>369</v>
       </c>
@@ -15767,7 +15764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>370</v>
       </c>
@@ -15821,1035 +15818,1035 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
     </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
     </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
     </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
     </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
     </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
     </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
     </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
     </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
     </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
     </row>
-    <row r="177" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
     </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
     </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
     </row>
-    <row r="180" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
     </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
     </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
     </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
     </row>
-    <row r="186" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
     </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
     </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
     </row>
-    <row r="189" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
     </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
     </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
     </row>
-    <row r="192" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
     </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
     </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
     </row>
-    <row r="195" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
     </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
     </row>
-    <row r="197" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
     </row>
-    <row r="199" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
     </row>
-    <row r="200" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
     </row>
-    <row r="201" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
     </row>
-    <row r="202" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
     </row>
-    <row r="203" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
     </row>
-    <row r="204" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
     </row>
-    <row r="205" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
     </row>
-    <row r="206" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
     </row>
-    <row r="207" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
     </row>
-    <row r="208" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
     </row>
-    <row r="209" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
     </row>
-    <row r="210" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
     </row>
-    <row r="211" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="211" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
     </row>
-    <row r="212" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
     </row>
-    <row r="213" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="213" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
     </row>
-    <row r="214" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="214" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
     </row>
-    <row r="215" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="215" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
     </row>
-    <row r="216" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
     </row>
-    <row r="217" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="217" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
     </row>
-    <row r="218" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
     </row>
-    <row r="219" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="219" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
     </row>
-    <row r="220" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="220" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
     </row>
-    <row r="221" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
     </row>
-    <row r="222" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="222" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
     </row>
-    <row r="223" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
     </row>
-    <row r="224" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="224" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
     </row>
-    <row r="225" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
     </row>
-    <row r="226" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
     </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
     </row>
-    <row r="228" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="228" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
     </row>
-    <row r="229" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="229" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
     </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
     </row>
-    <row r="231" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="231" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
     </row>
-    <row r="232" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="232" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
     </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="233" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
     </row>
-    <row r="234" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
     </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
     </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="236" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
     </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="237" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
     </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="238" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
     </row>
-    <row r="239" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="239" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
     </row>
-    <row r="240" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="240" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
     </row>
-    <row r="241" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
     </row>
-    <row r="242" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
     </row>
-    <row r="243" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="243" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
     </row>
-    <row r="244" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="244" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
     </row>
-    <row r="245" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="245" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
     </row>
-    <row r="246" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="246" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
     </row>
-    <row r="247" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="247" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
     </row>
-    <row r="248" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="248" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
     </row>
-    <row r="249" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="249" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
     </row>
-    <row r="250" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="250" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
     </row>
-    <row r="251" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="251" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
     </row>
-    <row r="252" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="252" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
     </row>
-    <row r="253" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="253" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
     </row>
-    <row r="254" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="254" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
     </row>
-    <row r="255" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="255" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
     </row>
-    <row r="256" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="256" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
     </row>
-    <row r="257" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="257" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
     </row>
-    <row r="258" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="258" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
     </row>
-    <row r="259" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="259" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
     </row>
-    <row r="260" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="260" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
     </row>
-    <row r="261" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="261" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
     </row>
-    <row r="262" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="262" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
     </row>
-    <row r="263" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="263" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
     </row>
-    <row r="264" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="264" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
     </row>
-    <row r="265" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="265" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
     </row>
-    <row r="266" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="266" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
     </row>
-    <row r="267" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="267" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
     </row>
-    <row r="268" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="268" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
     </row>
-    <row r="269" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="269" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
     </row>
-    <row r="270" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="270" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
     </row>
-    <row r="271" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="271" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
     </row>
-    <row r="272" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="272" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
     </row>
-    <row r="273" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="273" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
     </row>
-    <row r="274" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="274" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
     </row>
-    <row r="275" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="275" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
     </row>
-    <row r="276" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="276" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
     </row>
-    <row r="277" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="277" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
     </row>
-    <row r="278" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="278" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
     </row>
-    <row r="279" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="279" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
     </row>
-    <row r="280" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="280" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
     </row>
-    <row r="281" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="281" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
     </row>
-    <row r="282" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="282" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
     </row>
-    <row r="283" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="283" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
     </row>
-    <row r="284" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="284" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
     </row>
-    <row r="285" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="285" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
     </row>
-    <row r="286" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="286" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
     </row>
-    <row r="287" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="287" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
     </row>
-    <row r="288" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="288" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
     </row>
-    <row r="289" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="289" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
     </row>
-    <row r="290" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="290" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
     </row>
-    <row r="291" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="291" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
     </row>
-    <row r="292" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="292" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
     </row>
-    <row r="293" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="293" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
     </row>
-    <row r="294" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="294" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
     </row>
@@ -16866,9 +16863,9 @@
       <selection activeCell="M1" sqref="M1:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>379</v>
       </c>
@@ -16879,7 +16876,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>391</v>
       </c>
@@ -16903,9 +16900,9 @@
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>382</v>
       </c>
@@ -16916,7 +16913,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
@@ -16927,7 +16924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
@@ -16951,9 +16948,9 @@
       <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>385</v>
       </c>
@@ -16964,7 +16961,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -16975,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -16986,7 +16983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -16997,7 +16994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -17008,7 +17005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -17032,9 +17029,9 @@
       <selection activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>388</v>
       </c>
@@ -17045,7 +17042,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>392</v>
       </c>
@@ -17056,7 +17053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>393</v>
       </c>
@@ -17067,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>394</v>
       </c>
@@ -17078,7 +17075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>395</v>
       </c>
@@ -17089,7 +17086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>396</v>
       </c>
